--- a/MPPA-Rating_20220302.xlsx
+++ b/MPPA-Rating_20220302.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nchaiphuong\Documents\Github_Repos\Viz003_IMDb-Top-Movies-by-MPAA-Rating-20220302\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8CB62F1-0FC2-413C-9BD0-FE7E28FE4790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D879EDC-D53A-40B1-9D83-8FD8582ABC82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10678,19 +10678,19 @@
 On the box: "No One 17 and Under Admitted"</t>
   </si>
   <si>
-    <t>https://github.com/mandyhpnguyen/Viz003_IMDb-Top-Movies-by-MPAA-Rating-20220302/blob/main/images/MPA_G_RATING_(block).svg.png</t>
-  </si>
-  <si>
-    <t>https://github.com/mandyhpnguyen/Viz003_IMDb-Top-Movies-by-MPAA-Rating-20220302/blob/main/images/MPA_NC-17_RATING_(block).svg.png</t>
-  </si>
-  <si>
-    <t>https://github.com/mandyhpnguyen/Viz003_IMDb-Top-Movies-by-MPAA-Rating-20220302/blob/main/images/MPA_PG-13_RATING_(block).svg.png</t>
-  </si>
-  <si>
-    <t>https://github.com/mandyhpnguyen/Viz003_IMDb-Top-Movies-by-MPAA-Rating-20220302/blob/main/images/MPA_PG_RATING_(block).svg.png</t>
-  </si>
-  <si>
-    <t>https://github.com/mandyhpnguyen/Viz003_IMDb-Top-Movies-by-MPAA-Rating-20220302/blob/main/images/MPA_R_RATING_(block).svg.png</t>
+    <t>https://github.com/mandyhpnguyen/Viz003_IMDb-Top-Movies-by-MPAA-Rating-20220302/blob/main/images/MPA_G_RATING_(block).svg.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/mandyhpnguyen/Viz003_IMDb-Top-Movies-by-MPAA-Rating-20220302/blob/main/images/MPA_NC-17_RATING_(block).svg.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/mandyhpnguyen/Viz003_IMDb-Top-Movies-by-MPAA-Rating-20220302/blob/main/images/MPA_PG-13_RATING_(block).svg.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/mandyhpnguyen/Viz003_IMDb-Top-Movies-by-MPAA-Rating-20220302/blob/main/images/MPA_PG_RATING_(block).svg.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/mandyhpnguyen/Viz003_IMDb-Top-Movies-by-MPAA-Rating-20220302/blob/main/images/MPA_R_RATING_(block).svg.png?raw=true</t>
   </si>
 </sst>
 </file>
@@ -83572,7 +83572,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/MPPA-Rating_20220302.xlsx
+++ b/MPPA-Rating_20220302.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nchaiphuong\Documents\Github_Repos\Viz003_IMDb-Top-Movies-by-MPAA-Rating-20220302\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nchaiphuong\Documents\Github_Repos\Viz003_IMDb-Top-Worldwide-Movies-20220302\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D879EDC-D53A-40B1-9D83-8FD8582ABC82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E826E00-06A8-4BF7-89A0-34617F7D397B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10678,19 +10678,19 @@
 On the box: "No One 17 and Under Admitted"</t>
   </si>
   <si>
-    <t>https://github.com/mandyhpnguyen/Viz003_IMDb-Top-Movies-by-MPAA-Rating-20220302/blob/main/images/MPA_G_RATING_(block).svg.png?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/mandyhpnguyen/Viz003_IMDb-Top-Movies-by-MPAA-Rating-20220302/blob/main/images/MPA_NC-17_RATING_(block).svg.png?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/mandyhpnguyen/Viz003_IMDb-Top-Movies-by-MPAA-Rating-20220302/blob/main/images/MPA_PG-13_RATING_(block).svg.png?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/mandyhpnguyen/Viz003_IMDb-Top-Movies-by-MPAA-Rating-20220302/blob/main/images/MPA_PG_RATING_(block).svg.png?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/mandyhpnguyen/Viz003_IMDb-Top-Movies-by-MPAA-Rating-20220302/blob/main/images/MPA_R_RATING_(block).svg.png?raw=true</t>
+    <t>https://github.com/mandyhpnguyen/Viz003_IMDb-Top-Worldwide-Movies-20220302/blob/main/images/MPA_G_RATING_(block)-Trans.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/mandyhpnguyen/Viz003_IMDb-Top-Worldwide-Movies-20220302/blob/main/images/MPA_PG_RATING_(block)-Trans.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/mandyhpnguyen/Viz003_IMDb-Top-Worldwide-Movies-20220302/blob/main/images/MPA_PG-13_RATING_(block)-Trans.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/mandyhpnguyen/Viz003_IMDb-Top-Worldwide-Movies-20220302/blob/main/images/MPA_R_RATING_(block)-Trans.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/mandyhpnguyen/Viz003_IMDb-Top-Worldwide-Movies-20220302/blob/main/images/MPA_NC-17_RATING_(block)-Trans.png?raw=true</t>
   </si>
 </sst>
 </file>
@@ -83572,7 +83572,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -83630,7 +83630,7 @@
         <v>3541</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>3548</v>
+        <v>3546</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
@@ -83666,7 +83666,7 @@
         <v>3543</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>3549</v>
+        <v>3548</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -83684,7 +83684,7 @@
         <v>3544</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>3546</v>
+        <v>3549</v>
       </c>
     </row>
   </sheetData>
